--- a/заказы/статистика филиалы/2024/06,24/19,06,24 ПОКОМ КИ филиалы/дв 19,06,24 днрсч пок ки.xlsx
+++ b/заказы/статистика филиалы/2024/06,24/19,06,24 ПОКОМ КИ филиалы/дв 19,06,24 днрсч пок ки.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\19,06,24 ПОКОМ КИ филиалы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2024\06,24\19,06,24 ПОКОМ КИ филиалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB387AF3-A95C-490C-9695-28782F8102BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6066F5DB-C9DA-4B6D-8C4D-869C0CB48F39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -477,17 +477,23 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2613,7 +2619,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="Q4" sqref="Q4"/>
+      <selection pane="bottomRight" activeCell="AC8" sqref="AC8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4094,7 +4100,7 @@
       </c>
       <c r="AA16" s="1"/>
       <c r="AB16" s="1">
-        <f t="shared" si="6"/>
+        <f>ROUND(P16,0)</f>
         <v>11</v>
       </c>
       <c r="AC16" s="1"/>
